--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6293,4 +6294,2264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9307</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7865</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6600</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6121</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8554,4 +8555,2644 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2793</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7807</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7464</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5621</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5457</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11195,4 +11196,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11204,7 +11205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11215,17 +11216,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11235,14 +11256,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.27</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -11251,14 +11294,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.17</v>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -11267,14 +11332,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.64</v>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>198.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11283,13 +11370,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9741</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5686</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>72</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12705,7 +12706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12716,17 +12717,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12736,14 +12757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.25</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -12752,14 +12795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.27</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12768,14 +12833,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.17</v>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12784,14 +12871,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>79</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.64</v>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12800,13 +12909,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>79</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>72</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13712,7 +13713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13723,17 +13724,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13743,14 +13764,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.24</v>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13759,14 +13802,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.25</v>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -13775,14 +13840,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.27</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13791,14 +13878,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.17</v>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13807,14 +13916,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.64</v>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -13823,13 +13954,1361 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>79</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>6.59</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>8.24</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>27.25</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>32.27</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>36.17</v>
+        <v>32.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>33.64</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>79</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>72</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.29</v>
       </c>
     </row>
@@ -600,6 +617,1310 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2061,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3067,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4567,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7207,7 +8528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9467,7 +10788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12525,7 +13846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300558-贝达药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>6.59</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>8.24</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>27.25</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>32.27</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>36.17</v>
+        <v>32.27</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>33.64</v>
+        <v>36.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2822 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>79</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>72</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>32.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8752</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7380</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5999</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002057</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002502</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银腾利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银腾利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002058</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3426,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1920,7 +5811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3382,7 +7273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4388,7 +8279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5888,7 +9779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8528,7 +12419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10788,7 +14679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13844,2796 +17735,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.1074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2223</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009330</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华成长价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6333</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5302</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008716</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华优质回报两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.8129</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3040</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2723</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0884</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160605</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华中国50混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8752</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7380</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7380</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>206007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华消费优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7274</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000854</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华养老产业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5999</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5515</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005812</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5294</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009331</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华成长价值混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5133</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4937</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515750</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证科技50策略ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4856</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002708</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大摩健康产业混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4594</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4566</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4254</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3865</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004986</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3704</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009414</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银大健康股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3354</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>900152</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2892</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2740</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160645</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华精选回报三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.31</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2370</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005967</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2273</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1916</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1661</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1651</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1192</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1120</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>84.39</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0956</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001327</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>26.61</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001331</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003142</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001325</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0748</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002057</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中银新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002502</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中银腾利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>21.33</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002461</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中银珍利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002462</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中银珍利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>003143</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001328</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001326</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002503</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中银腾利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>21.33</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>900022</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>900052</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>002058</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中银新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>009513</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>009514</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>010321</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>中银大健康股票C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>